--- a/biology/Médecine/Concha_bullosa/Concha_bullosa.xlsx
+++ b/biology/Médecine/Concha_bullosa/Concha_bullosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La concha bullosa désigne la pneumatisation du cornet nasal moyen[1]. 
-Il s'agit d'une variante anatomique fréquente, retrouvée chez près de la moitié de la population[2]. Elle est bilatérale dans la moitié des cas[2]. 
-L'existence d'une concha bullosa peut être un facteur de confinement du sinus maxillaire homolatéral[1] en participant à un rétrécissement du complexe infundibulo-méatique aux côtés d'autres variantes anatomiques (cellules de Haller, anomalies du processus unciforme, déviation septale). Ce confinement du sinus entraîne à son tour la survenue d'une sinusite chronique.
-La présence d'une concha bullosa est associée de façon significative à une déviation controlatérale du septum nasal[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La concha bullosa désigne la pneumatisation du cornet nasal moyen. 
+Il s'agit d'une variante anatomique fréquente, retrouvée chez près de la moitié de la population. Elle est bilatérale dans la moitié des cas. 
+L'existence d'une concha bullosa peut être un facteur de confinement du sinus maxillaire homolatéral en participant à un rétrécissement du complexe infundibulo-méatique aux côtés d'autres variantes anatomiques (cellules de Haller, anomalies du processus unciforme, déviation septale). Ce confinement du sinus entraîne à son tour la survenue d'une sinusite chronique.
+La présence d'une concha bullosa est associée de façon significative à une déviation controlatérale du septum nasal. 
 </t>
         </is>
       </c>
